--- a/output/0/tRNA-Thr-CGT-2-1.xlsx
+++ b/output/0/tRNA-Thr-CGT-2-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>chr16</t>
   </si>
   <si>
-    <t>14379749</t>
-  </si>
-  <si>
-    <t>14379772</t>
+    <t>14379755</t>
+  </si>
+  <si>
+    <t>14379778</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>14379769</t>
+    <t>14379775</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,55 +38,28 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>GGCGCGGTGGCCAAGTGGTA</t>
-  </si>
-  <si>
-    <t>AGG</t>
+    <t>GTGGCCAAGTGGTAAGGCGT</t>
+  </si>
+  <si>
+    <t>CGG</t>
   </si>
   <si>
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>90% (69)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>81% (60)</t>
+  </si>
+  <si>
+    <t>82% (62)</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>14379755</t>
-  </si>
-  <si>
-    <t>14379778</t>
-  </si>
-  <si>
-    <t>14379775</t>
-  </si>
-  <si>
-    <t>GTGGCCAAGTGGTAAGGCGT</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>81% (60)</t>
-  </si>
-  <si>
-    <t>82% (62)</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>63</t>
   </si>
   <si>
     <t>14379759</t>
@@ -161,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -240,13 +213,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -258,89 +231,30 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" t="s">
         <v>3</v>
       </c>
     </row>
